--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btc-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btc-Erbb4.xlsx
@@ -537,10 +537,10 @@
         <v>1.912506</v>
       </c>
       <c r="I2">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J2">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P2">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q2">
         <v>0.006565633098000001</v>
@@ -567,10 +567,10 @@
         <v>0.05909069788200001</v>
       </c>
       <c r="S2">
-        <v>0.6066438711236017</v>
+        <v>0.4927370723047613</v>
       </c>
       <c r="T2">
-        <v>0.6066438711236017</v>
+        <v>0.4927370723047612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>1.912506</v>
       </c>
       <c r="I3">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J3">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,10 +629,10 @@
         <v>0.001143678588</v>
       </c>
       <c r="S3">
-        <v>0.01174136760630203</v>
+        <v>0.009536743672144455</v>
       </c>
       <c r="T3">
-        <v>0.01174136760630203</v>
+        <v>0.009536743672144455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H4">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I4">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J4">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,19 +682,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P4">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q4">
-        <v>0.004051750188000001</v>
+        <v>0.006506187270000001</v>
       </c>
       <c r="R4">
-        <v>0.03646575169200001</v>
+        <v>0.05855568543</v>
       </c>
       <c r="S4">
-        <v>0.3743689880603958</v>
+        <v>0.4882757868792362</v>
       </c>
       <c r="T4">
-        <v>0.3743689880603958</v>
+        <v>0.4882757868792362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,22 +711,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H5">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I5">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J5">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,16 +747,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q5">
-        <v>7.842012533333335E-05</v>
+        <v>0.0001259248466666667</v>
       </c>
       <c r="R5">
-        <v>0.0007057811280000001</v>
+        <v>0.00113332362</v>
       </c>
       <c r="S5">
-        <v>0.007245773209700509</v>
+        <v>0.009450397143858084</v>
       </c>
       <c r="T5">
-        <v>0.007245773209700509</v>
+        <v>0.009450397143858084</v>
       </c>
     </row>
   </sheetData>
